--- a/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-sedinkinya\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200BF475-A203-4E9B-B8EE-3F1D35479467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B4076-969B-4FF1-B5B5-3EDE1588AC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2190" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2865" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms R5 server" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8708" uniqueCount="1615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8722" uniqueCount="1619">
   <si>
     <t>Legend</t>
   </si>
@@ -4866,6 +4866,18 @@
   </si>
   <si>
     <t>disable</t>
+  </si>
+  <si>
+    <t>Actual total number of participants enrolled in study</t>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+  </si>
+  <si>
+    <t># of participants</t>
+  </si>
+  <si>
+    <t>recruitment.actualNumber</t>
   </si>
 </sst>
 </file>
@@ -5280,10 +5292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H328"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312:XFD312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11850,37 +11862,39 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
-      <c r="B312" s="6" t="s">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F312" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G312" s="6"/>
-      <c r="H312" s="6" t="s">
-        <v>615</v>
+      <c r="C312" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>19</v>
@@ -11890,336 +11904,358 @@
       </c>
       <c r="G313" s="6"/>
       <c r="H313" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E314" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>35</v>
+        <v>614</v>
       </c>
       <c r="G314" s="6"/>
       <c r="H314" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="8"/>
-      <c r="B315" s="8" t="s">
+      <c r="A315" s="6"/>
+      <c r="B315" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C315" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="E315" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F315" s="9" t="s">
+      <c r="C315" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F315" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G315" s="8"/>
-      <c r="H315" s="8" t="s">
+      <c r="G315" s="6"/>
+      <c r="H315" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E316" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F316" s="12" t="s">
-        <v>623</v>
+      <c r="F316" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G316" s="8"/>
       <c r="H316" s="8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="8" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E317" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F317" s="9" t="s">
-        <v>56</v>
+      <c r="F317" s="12" t="s">
+        <v>623</v>
       </c>
       <c r="G317" s="8"/>
       <c r="H317" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="8"/>
+      <c r="B318" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E318" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F318" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G318" s="8"/>
+      <c r="H318" s="8" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
-      <c r="B318" s="6" t="s">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C318" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D318" s="6" t="s">
+      <c r="C319" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D319" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="E318" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F318" s="7" t="s">
+      <c r="E319" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F319" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G318" s="6"/>
-      <c r="H318" s="6" t="s">
+      <c r="G319" s="6"/>
+      <c r="H319" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="8"/>
-      <c r="B319" s="8" t="s">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="8"/>
+      <c r="B320" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="C319" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D319" s="8" t="s">
+      <c r="C320" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="E319" s="8" t="s">
+      <c r="E320" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F319" s="9" t="s">
+      <c r="F320" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G319" s="8"/>
-      <c r="H319" s="8" t="s">
+      <c r="G320" s="8"/>
+      <c r="H320" s="8" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
-      <c r="B320" s="6" t="s">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="6"/>
+      <c r="B321" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C320" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D320" s="6" t="s">
+      <c r="C321" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D321" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E320" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F320" s="7" t="s">
+      <c r="E321" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F321" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G320" s="6"/>
-      <c r="H320" s="6" t="s">
+      <c r="G321" s="6"/>
+      <c r="H321" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="10"/>
-      <c r="B321" s="10" t="s">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="10"/>
+      <c r="B322" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C321" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D321" s="10" t="s">
+      <c r="C322" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E321" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F321" s="11" t="s">
+      <c r="E322" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F322" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G321" s="10"/>
-      <c r="H321" s="10" t="s">
+      <c r="G322" s="10"/>
+      <c r="H322" s="10" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
-      <c r="B322" s="6" t="s">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="6"/>
+      <c r="B323" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C322" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D322" s="6" t="s">
+      <c r="C323" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E322" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F322" s="7" t="s">
+      <c r="E323" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F323" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G322" s="6"/>
-      <c r="H322" s="6" t="s">
+      <c r="G323" s="6"/>
+      <c r="H323" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="8"/>
-      <c r="B323" s="8" t="s">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="8"/>
+      <c r="B324" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="C323" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D323" s="8" t="s">
+      <c r="C324" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D324" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="E323" s="8" t="s">
+      <c r="E324" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F323" s="9" t="s">
+      <c r="F324" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G323" s="8"/>
-      <c r="H323" s="8" t="s">
+      <c r="G324" s="8"/>
+      <c r="H324" s="8" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
-      <c r="B324" s="6" t="s">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="6"/>
+      <c r="B325" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C324" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D324" s="6" t="s">
+      <c r="C325" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D325" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="E324" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F324" s="7" t="s">
+      <c r="E325" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F325" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G324" s="6"/>
-      <c r="H324" s="6" t="s">
+      <c r="G325" s="6"/>
+      <c r="H325" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="10"/>
-      <c r="B325" s="10" t="s">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="10"/>
+      <c r="B326" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C325" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D325" s="10" t="s">
+      <c r="C326" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D326" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="E325" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F325" s="11" t="s">
+      <c r="E326" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F326" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G325" s="10"/>
-      <c r="H325" s="10" t="s">
+      <c r="G326" s="10"/>
+      <c r="H326" s="10" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="8"/>
-      <c r="B326" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F326" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G326" s="8"/>
-      <c r="H326" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E327" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="G327" s="8"/>
       <c r="H327" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="8" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E328" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G328" s="8"/>
       <c r="H328" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="8"/>
+      <c r="B329" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G329" s="8"/>
+      <c r="H329" s="8" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12230,10 +12266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1171"/>
+  <dimension ref="A1:H1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A1042" workbookViewId="0">
+      <selection activeCell="G1069" sqref="G1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35141,37 +35177,39 @@
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1069" s="6"/>
-      <c r="B1069" s="6" t="s">
+      <c r="A1069" s="2"/>
+      <c r="B1069" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C1069" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1069" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="E1069" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1069" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G1069" s="6"/>
-      <c r="H1069" s="6" t="s">
-        <v>615</v>
+      <c r="C1069" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E1069" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1069" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G1069" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H1069" s="2" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1070" s="6"/>
       <c r="B1070" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C1070" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1070" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E1070" s="6" t="s">
         <v>19</v>
@@ -35181,29 +35219,29 @@
       </c>
       <c r="G1070" s="6"/>
       <c r="H1070" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1071" s="6"/>
       <c r="B1071" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C1071" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1071" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E1071" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1071" s="7" t="s">
-        <v>35</v>
+        <v>614</v>
       </c>
       <c r="G1071" s="6"/>
       <c r="H1071" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
@@ -35212,10 +35250,10 @@
         <v>618</v>
       </c>
       <c r="C1072" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1072" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E1072" s="6" t="s">
         <v>19</v>
@@ -35231,67 +35269,67 @@
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="6"/>
       <c r="B1073" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C1073" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1073" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E1073" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1073" s="12" t="s">
-        <v>623</v>
+        <v>19</v>
+      </c>
+      <c r="F1073" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G1073" s="6"/>
       <c r="H1073" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074" s="6"/>
       <c r="B1074" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C1074" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1074" s="6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E1074" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1074" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+      <c r="F1074" s="12" t="s">
+        <v>623</v>
       </c>
       <c r="G1074" s="6"/>
       <c r="H1074" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075" s="6"/>
       <c r="B1075" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C1075" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1075" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E1075" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1075" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1075" s="6"/>
       <c r="H1075" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
@@ -35300,16 +35338,16 @@
         <v>628</v>
       </c>
       <c r="C1076" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1076" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E1076" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1076" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1076" s="6"/>
       <c r="H1076" s="6" t="s">
@@ -35319,23 +35357,23 @@
     <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077" s="6"/>
       <c r="B1077" s="6" t="s">
-        <v>215</v>
+        <v>628</v>
       </c>
       <c r="C1077" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1077" s="6" t="s">
-        <v>215</v>
+        <v>630</v>
       </c>
       <c r="E1077" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1077" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1077" s="6"/>
       <c r="H1077" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
@@ -35344,10 +35382,10 @@
         <v>215</v>
       </c>
       <c r="C1078" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1078" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1078" s="6" t="s">
         <v>19</v>
@@ -35357,41 +35395,41 @@
       </c>
       <c r="G1078" s="6"/>
       <c r="H1078" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1079" s="6"/>
       <c r="B1079" s="6" t="s">
-        <v>633</v>
+        <v>215</v>
       </c>
       <c r="C1079" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1079" s="6" t="s">
-        <v>633</v>
+        <v>217</v>
       </c>
       <c r="E1079" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1079" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G1079" s="6"/>
       <c r="H1079" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" s="6"/>
       <c r="B1080" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C1080" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1080" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E1080" s="6" t="s">
         <v>19</v>
@@ -35407,23 +35445,23 @@
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1081" s="6"/>
       <c r="B1081" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C1081" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1081" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E1081" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1081" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G1081" s="6"/>
       <c r="H1081" s="6" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
@@ -35432,10 +35470,10 @@
         <v>637</v>
       </c>
       <c r="C1082" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1082" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E1082" s="6" t="s">
         <v>19</v>
@@ -35445,112 +35483,112 @@
       </c>
       <c r="G1082" s="6"/>
       <c r="H1082" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1083" s="6"/>
       <c r="B1083" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C1083" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1083" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E1083" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1083" s="7" t="s">
-        <v>366</v>
+        <v>26</v>
       </c>
       <c r="G1083" s="6"/>
       <c r="H1083" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1084" s="6"/>
       <c r="B1084" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C1084" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1084" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E1084" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1084" s="7" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="G1084" s="6"/>
       <c r="H1084" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1085" s="6"/>
       <c r="B1085" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C1085" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1085" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E1085" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1085" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G1085" s="6"/>
       <c r="H1085" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1086" s="6"/>
+      <c r="B1086" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1086" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1086" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E1086" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1086" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1086" s="6"/>
+      <c r="H1086" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
         <v>1543</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1087" s="6"/>
-      <c r="B1087" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1087" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1087" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1087" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1087" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1087" s="6"/>
-      <c r="H1087" s="6" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" s="6"/>
       <c r="B1088" s="6" t="s">
-        <v>1545</v>
+        <v>129</v>
       </c>
       <c r="C1088" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1088" s="6" t="s">
-        <v>1546</v>
+        <v>130</v>
       </c>
       <c r="E1088" s="6" t="s">
         <v>19</v>
@@ -35560,51 +35598,51 @@
       </c>
       <c r="G1088" s="6"/>
       <c r="H1088" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" s="6"/>
       <c r="B1089" s="6" t="s">
-        <v>48</v>
+        <v>1545</v>
       </c>
       <c r="C1089" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1089" s="6" t="s">
-        <v>50</v>
+        <v>1546</v>
       </c>
       <c r="E1089" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1089" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G1089" s="6"/>
       <c r="H1089" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1090" s="6"/>
       <c r="B1090" s="6" t="s">
-        <v>552</v>
+        <v>48</v>
       </c>
       <c r="C1090" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1090" s="6" t="s">
-        <v>552</v>
+        <v>50</v>
       </c>
       <c r="E1090" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1090" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G1090" s="6"/>
       <c r="H1090" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
@@ -35613,16 +35651,16 @@
         <v>552</v>
       </c>
       <c r="C1091" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1091" s="6" t="s">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="E1091" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1091" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1091" s="6"/>
       <c r="H1091" s="6" t="s">
@@ -35632,45 +35670,45 @@
     <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1092" s="6"/>
       <c r="B1092" s="6" t="s">
-        <v>23</v>
+        <v>552</v>
       </c>
       <c r="C1092" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1092" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1092" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1092" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G1092" s="6"/>
       <c r="H1092" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1093" s="6"/>
       <c r="B1093" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C1093" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1093" s="6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E1093" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1093" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G1093" s="6"/>
       <c r="H1093" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
@@ -35679,16 +35717,16 @@
         <v>52</v>
       </c>
       <c r="C1094" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1094" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1094" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1094" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1094" s="6"/>
       <c r="H1094" s="6" t="s">
@@ -35698,44 +35736,44 @@
     <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1095" s="6"/>
       <c r="B1095" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C1095" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1095" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E1095" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1095" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G1095" s="6"/>
-      <c r="H1095" s="6"/>
+      <c r="H1095" s="6" t="s">
+        <v>1551</v>
+      </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1096" s="6"/>
       <c r="B1096" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1096" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1096" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1096" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1096" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G1096" s="6"/>
-      <c r="H1096" s="6" t="s">
-        <v>1552</v>
-      </c>
+      <c r="H1096" s="6"/>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1097" s="6"/>
@@ -35743,10 +35781,10 @@
         <v>66</v>
       </c>
       <c r="C1097" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1097" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1097" s="6" t="s">
         <v>19</v>
@@ -35762,23 +35800,23 @@
     <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098" s="6"/>
       <c r="B1098" s="6" t="s">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="C1098" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1098" s="6" t="s">
-        <v>415</v>
+        <v>67</v>
       </c>
       <c r="E1098" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1098" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G1098" s="6"/>
       <c r="H1098" s="6" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
@@ -35787,10 +35825,10 @@
         <v>415</v>
       </c>
       <c r="C1099" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1099" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E1099" s="6" t="s">
         <v>19</v>
@@ -35806,133 +35844,133 @@
     <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100" s="6"/>
       <c r="B1100" s="6" t="s">
-        <v>1554</v>
+        <v>415</v>
       </c>
       <c r="C1100" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1100" s="6" t="s">
-        <v>1555</v>
+        <v>417</v>
       </c>
       <c r="E1100" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1100" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G1100" s="6"/>
       <c r="H1100" s="6" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101" s="6"/>
       <c r="B1101" s="6" t="s">
-        <v>70</v>
+        <v>1554</v>
       </c>
       <c r="C1101" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1101" s="6" t="s">
-        <v>71</v>
+        <v>1555</v>
       </c>
       <c r="E1101" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1101" s="12" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="F1101" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G1101" s="6"/>
       <c r="H1101" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102" s="6"/>
       <c r="B1102" s="6" t="s">
-        <v>715</v>
+        <v>70</v>
       </c>
       <c r="C1102" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1102" s="6" t="s">
-        <v>716</v>
+        <v>71</v>
       </c>
       <c r="E1102" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1102" s="7" t="s">
-        <v>885</v>
+        <v>31</v>
+      </c>
+      <c r="F1102" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="G1102" s="6"/>
       <c r="H1102" s="6" t="s">
-        <v>1550</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103" s="6"/>
       <c r="B1103" s="6" t="s">
-        <v>1558</v>
+        <v>715</v>
       </c>
       <c r="C1103" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1103" s="6" t="s">
-        <v>1559</v>
+        <v>716</v>
       </c>
       <c r="E1103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1103" s="7" t="s">
-        <v>56</v>
+        <v>885</v>
       </c>
       <c r="G1103" s="6"/>
       <c r="H1103" s="6" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104" s="6"/>
       <c r="B1104" s="6" t="s">
-        <v>91</v>
+        <v>1558</v>
       </c>
       <c r="C1104" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1104" s="6" t="s">
-        <v>91</v>
+        <v>1559</v>
       </c>
       <c r="E1104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1104" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G1104" s="6"/>
       <c r="H1104" s="6" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105" s="6"/>
       <c r="B1105" s="6" t="s">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="C1105" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1105" s="6" t="s">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="E1105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1105" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G1105" s="6"/>
       <c r="H1105" s="6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
@@ -35941,16 +35979,16 @@
         <v>271</v>
       </c>
       <c r="C1106" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1106" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E1106" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1106" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1106" s="6"/>
       <c r="H1106" s="6" t="s">
@@ -35960,133 +35998,133 @@
     <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1107" s="6"/>
       <c r="B1107" s="6" t="s">
-        <v>1563</v>
+        <v>271</v>
       </c>
       <c r="C1107" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1107" s="6" t="s">
-        <v>1564</v>
+        <v>273</v>
       </c>
       <c r="E1107" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1107" s="12" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="F1107" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G1107" s="6"/>
       <c r="H1107" s="6" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108" s="6"/>
       <c r="B1108" s="6" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C1108" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1108" s="6" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E1108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1108" s="7" t="s">
-        <v>614</v>
+        <v>31</v>
+      </c>
+      <c r="F1108" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G1108" s="6"/>
       <c r="H1108" s="6" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" s="6"/>
       <c r="B1109" s="6" t="s">
-        <v>193</v>
+        <v>1566</v>
       </c>
       <c r="C1109" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1109" s="6" t="s">
-        <v>194</v>
+        <v>1566</v>
       </c>
       <c r="E1109" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1109" s="12" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="F1109" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="G1109" s="6"/>
       <c r="H1109" s="6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1110" s="6"/>
       <c r="B1110" s="6" t="s">
-        <v>1569</v>
+        <v>193</v>
       </c>
       <c r="C1110" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1110" s="6" t="s">
-        <v>1569</v>
+        <v>194</v>
       </c>
       <c r="E1110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1110" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="F1110" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G1110" s="6"/>
       <c r="H1110" s="6" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111" s="6"/>
       <c r="B1111" s="6" t="s">
-        <v>215</v>
+        <v>1569</v>
       </c>
       <c r="C1111" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1111" s="6" t="s">
-        <v>217</v>
+        <v>1569</v>
       </c>
       <c r="E1111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1111" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G1111" s="6"/>
       <c r="H1111" s="6" t="s">
-        <v>431</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1112" s="6"/>
       <c r="B1112" s="6" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="C1112" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1112" s="6" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="E1112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1112" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G1112" s="6"/>
       <c r="H1112" s="6" t="s">
-        <v>1561</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
@@ -36095,16 +36133,16 @@
         <v>108</v>
       </c>
       <c r="C1113" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1113" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1113" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1113" s="6"/>
       <c r="H1113" s="6" t="s">
@@ -36112,70 +36150,70 @@
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1114" t="s">
+      <c r="A1114" s="6"/>
+      <c r="B1114" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1114" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1114" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1114" s="6"/>
+      <c r="H1114" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1115" s="6"/>
-      <c r="B1115" s="6" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C1115" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1115" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="E1115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1115" s="7" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G1115" s="6"/>
-      <c r="H1115" s="6" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1116" s="6"/>
       <c r="B1116" s="6" t="s">
-        <v>959</v>
+        <v>1572</v>
       </c>
       <c r="C1116" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1116" s="6" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="E1116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1116" s="7" t="s">
-        <v>23</v>
+        <v>1573</v>
       </c>
       <c r="G1116" s="6"/>
       <c r="H1116" s="6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1117" s="6"/>
       <c r="B1117" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C1117" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1117" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E1117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1117" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="G1117" s="6"/>
       <c r="H1117" s="6" t="s">
@@ -36185,41 +36223,41 @@
     <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1118" s="6"/>
       <c r="B1118" s="6" t="s">
-        <v>127</v>
+        <v>961</v>
       </c>
       <c r="C1118" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1118" s="6" t="s">
-        <v>127</v>
+        <v>962</v>
       </c>
       <c r="E1118" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1118" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G1118" s="6"/>
       <c r="H1118" s="6" t="s">
-        <v>996</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1119" s="6"/>
       <c r="B1119" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1119" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1119" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E1119" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1119" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1119" s="6"/>
       <c r="H1119" s="6" t="s">
@@ -36229,111 +36267,111 @@
     <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1120" s="6"/>
       <c r="B1120" s="6" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C1120" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1120" s="6" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E1120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1120" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G1120" s="6"/>
       <c r="H1120" s="6" t="s">
-        <v>1576</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1121" s="6"/>
       <c r="B1121" s="6" t="s">
-        <v>1577</v>
+        <v>34</v>
       </c>
       <c r="C1121" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1121" s="6" t="s">
-        <v>1577</v>
+        <v>34</v>
       </c>
       <c r="E1121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1121" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G1121" s="6"/>
       <c r="H1121" s="6" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1122" s="6"/>
       <c r="B1122" s="6" t="s">
-        <v>37</v>
+        <v>1577</v>
       </c>
       <c r="C1122" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1122" s="6" t="s">
-        <v>38</v>
+        <v>1577</v>
       </c>
       <c r="E1122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1122" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G1122" s="6"/>
       <c r="H1122" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1123" s="6"/>
       <c r="B1123" s="6" t="s">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="C1123" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1123" s="6" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="E1123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1123" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G1123" s="6"/>
       <c r="H1123" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1124" s="6"/>
       <c r="B1124" s="6" t="s">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="C1124" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1124" s="6" t="s">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="E1124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1124" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G1124" s="6"/>
       <c r="H1124" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.25">
@@ -36342,10 +36380,10 @@
         <v>39</v>
       </c>
       <c r="C1125" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1125" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1125" s="6" t="s">
         <v>19</v>
@@ -36361,41 +36399,41 @@
     <row r="1126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1126" s="6"/>
       <c r="B1126" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C1126" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1126" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E1126" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1126" s="12" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="F1126" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G1126" s="6"/>
       <c r="H1126" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1127" s="6"/>
       <c r="B1127" s="6" t="s">
-        <v>1583</v>
+        <v>48</v>
       </c>
       <c r="C1127" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1127" s="6" t="s">
-        <v>1583</v>
+        <v>50</v>
       </c>
       <c r="E1127" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1127" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="F1127" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G1127" s="6"/>
       <c r="H1127" s="6" t="s">
@@ -36405,19 +36443,19 @@
     <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1128" s="6"/>
       <c r="B1128" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C1128" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1128" s="6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E1128" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1128" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G1128" s="6"/>
       <c r="H1128" s="6" t="s">
@@ -36427,45 +36465,45 @@
     <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1129" s="6"/>
       <c r="B1129" s="6" t="s">
-        <v>964</v>
+        <v>1584</v>
       </c>
       <c r="C1129" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1129" s="6" t="s">
-        <v>965</v>
+        <v>1584</v>
       </c>
       <c r="E1129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1129" s="7" t="s">
-        <v>452</v>
+        <v>53</v>
       </c>
       <c r="G1129" s="6"/>
       <c r="H1129" s="6" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1130" s="6"/>
       <c r="B1130" s="6" t="s">
-        <v>52</v>
+        <v>964</v>
       </c>
       <c r="C1130" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1130" s="6" t="s">
-        <v>52</v>
+        <v>965</v>
       </c>
       <c r="E1130" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1130" s="7" t="s">
-        <v>53</v>
+        <v>452</v>
       </c>
       <c r="G1130" s="6"/>
       <c r="H1130" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
@@ -36474,32 +36512,32 @@
         <v>52</v>
       </c>
       <c r="C1131" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1131" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1131" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1131" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1131" s="6"/>
       <c r="H1131" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1132" s="6"/>
       <c r="B1132" s="6" t="s">
-        <v>394</v>
+        <v>52</v>
       </c>
       <c r="C1132" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1132" s="6" t="s">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="E1132" s="6" t="s">
         <v>19</v>
@@ -36509,50 +36547,50 @@
       </c>
       <c r="G1132" s="6"/>
       <c r="H1132" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1133" s="6"/>
       <c r="B1133" s="6" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="C1133" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1133" s="6" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="E1133" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1133" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G1133" s="6"/>
-      <c r="H1133" s="6"/>
+      <c r="H1133" s="6" t="s">
+        <v>1588</v>
+      </c>
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1134" s="6"/>
       <c r="B1134" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1134" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1134" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1134" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1134" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G1134" s="6"/>
-      <c r="H1134" s="6" t="s">
-        <v>1589</v>
-      </c>
+      <c r="H1134" s="6"/>
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1135" s="6"/>
@@ -36560,10 +36598,10 @@
         <v>66</v>
       </c>
       <c r="C1135" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1135" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1135" s="6" t="s">
         <v>19</v>
@@ -36579,133 +36617,133 @@
     <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1136" s="6"/>
       <c r="B1136" s="6" t="s">
-        <v>778</v>
+        <v>66</v>
       </c>
       <c r="C1136" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1136" s="6" t="s">
-        <v>778</v>
+        <v>67</v>
       </c>
       <c r="E1136" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1136" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G1136" s="6"/>
       <c r="H1136" s="6" t="s">
-        <v>779</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1137" s="6"/>
       <c r="B1137" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C1137" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1137" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E1137" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1137" s="7" t="s">
-        <v>366</v>
+        <v>53</v>
       </c>
       <c r="G1137" s="6"/>
       <c r="H1137" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1138" s="6"/>
       <c r="B1138" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C1138" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1138" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E1138" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1138" s="7" t="s">
-        <v>784</v>
+        <v>366</v>
       </c>
       <c r="G1138" s="6"/>
       <c r="H1138" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1139" s="6"/>
       <c r="B1139" s="6" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C1139" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1139" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E1139" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1139" s="7" t="s">
-        <v>366</v>
+        <v>784</v>
       </c>
       <c r="G1139" s="6"/>
       <c r="H1139" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1140" s="6"/>
       <c r="B1140" s="6" t="s">
-        <v>1008</v>
+        <v>785</v>
       </c>
       <c r="C1140" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1140" s="6" t="s">
-        <v>1010</v>
+        <v>786</v>
       </c>
       <c r="E1140" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1140" s="7" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="G1140" s="6"/>
       <c r="H1140" s="6" t="s">
-        <v>1009</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1141" s="6"/>
       <c r="B1141" s="6" t="s">
-        <v>787</v>
+        <v>1008</v>
       </c>
       <c r="C1141" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1141" s="6" t="s">
-        <v>787</v>
+        <v>1010</v>
       </c>
       <c r="E1141" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1141" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1141" s="6"/>
       <c r="H1141" s="6" t="s">
-        <v>1590</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
@@ -36714,10 +36752,10 @@
         <v>787</v>
       </c>
       <c r="C1142" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1142" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E1142" s="6" t="s">
         <v>19</v>
@@ -36733,177 +36771,177 @@
     <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1143" s="6"/>
       <c r="B1143" s="6" t="s">
-        <v>166</v>
+        <v>787</v>
       </c>
       <c r="C1143" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1143" s="6" t="s">
-        <v>168</v>
+        <v>789</v>
       </c>
       <c r="E1143" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1143" s="12" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="F1143" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G1143" s="6"/>
       <c r="H1143" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1144" s="6"/>
       <c r="B1144" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C1144" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1144" s="6" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="E1144" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F1144" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G1144" s="6"/>
       <c r="H1144" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1145" s="6"/>
       <c r="B1145" s="6" t="s">
-        <v>839</v>
+        <v>70</v>
       </c>
       <c r="C1145" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1145" s="6" t="s">
-        <v>839</v>
+        <v>71</v>
       </c>
       <c r="E1145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1145" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="F1145" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="G1145" s="6"/>
       <c r="H1145" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1146" s="6"/>
       <c r="B1146" s="6" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="C1146" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1146" s="6" t="s">
-        <v>716</v>
+        <v>839</v>
       </c>
       <c r="E1146" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1146" s="7" t="s">
-        <v>717</v>
+        <v>23</v>
       </c>
       <c r="G1146" s="6"/>
       <c r="H1146" s="6" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1147" s="6"/>
       <c r="B1147" s="6" t="s">
-        <v>1593</v>
+        <v>715</v>
       </c>
       <c r="C1147" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1147" s="6" t="s">
-        <v>1594</v>
+        <v>716</v>
       </c>
       <c r="E1147" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1147" s="12" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="F1147" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="G1147" s="6"/>
       <c r="H1147" s="6" t="s">
-        <v>1595</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1148" s="6"/>
       <c r="B1148" s="6" t="s">
-        <v>91</v>
+        <v>1593</v>
       </c>
       <c r="C1148" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1148" s="6" t="s">
-        <v>91</v>
+        <v>1594</v>
       </c>
       <c r="E1148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1148" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
+      </c>
+      <c r="F1148" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G1148" s="6"/>
       <c r="H1148" s="6" t="s">
-        <v>1526</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1149" s="6"/>
       <c r="B1149" s="6" t="s">
-        <v>1596</v>
+        <v>91</v>
       </c>
       <c r="C1149" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1149" s="6" t="s">
-        <v>1597</v>
+        <v>91</v>
       </c>
       <c r="E1149" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1149" s="12" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="F1149" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G1149" s="6"/>
       <c r="H1149" s="6" t="s">
-        <v>1598</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1150" s="6"/>
       <c r="B1150" s="6" t="s">
-        <v>271</v>
+        <v>1596</v>
       </c>
       <c r="C1150" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1150" s="6" t="s">
-        <v>271</v>
+        <v>1597</v>
       </c>
       <c r="E1150" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1150" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="F1150" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G1150" s="6"/>
       <c r="H1150" s="6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
@@ -36912,16 +36950,16 @@
         <v>271</v>
       </c>
       <c r="C1151" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1151" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E1151" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1151" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1151" s="6"/>
       <c r="H1151" s="6" t="s">
@@ -36931,35 +36969,35 @@
     <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1152" s="6"/>
       <c r="B1152" s="6" t="s">
-        <v>1600</v>
+        <v>271</v>
       </c>
       <c r="C1152" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1152" s="6" t="s">
-        <v>1600</v>
+        <v>273</v>
       </c>
       <c r="E1152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1152" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G1152" s="6"/>
       <c r="H1152" s="6" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1153" s="6"/>
       <c r="B1153" s="6" t="s">
-        <v>1449</v>
+        <v>1600</v>
       </c>
       <c r="C1153" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1153" s="6" t="s">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="E1153" s="6" t="s">
         <v>19</v>
@@ -36975,23 +37013,23 @@
     <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1154" s="6"/>
       <c r="B1154" s="6" t="s">
-        <v>190</v>
+        <v>1449</v>
       </c>
       <c r="C1154" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1154" s="6" t="s">
-        <v>190</v>
+        <v>1450</v>
       </c>
       <c r="E1154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1154" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G1154" s="6"/>
       <c r="H1154" s="6" t="s">
-        <v>940</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
@@ -37000,10 +37038,10 @@
         <v>190</v>
       </c>
       <c r="C1155" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1155" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1155" s="6" t="s">
         <v>19</v>
@@ -37019,89 +37057,89 @@
     <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1156" s="6"/>
       <c r="B1156" s="6" t="s">
-        <v>1602</v>
+        <v>190</v>
       </c>
       <c r="C1156" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1156" s="6" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="E1156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1156" s="7" t="s">
-        <v>1603</v>
+        <v>48</v>
       </c>
       <c r="G1156" s="6"/>
       <c r="H1156" s="6" t="s">
-        <v>1604</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1157" s="6"/>
       <c r="B1157" s="6" t="s">
-        <v>193</v>
+        <v>1602</v>
       </c>
       <c r="C1157" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1157" s="6" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="E1157" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1157" s="12" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="F1157" s="7" t="s">
+        <v>1603</v>
       </c>
       <c r="G1157" s="6"/>
       <c r="H1157" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1158" s="6"/>
       <c r="B1158" s="6" t="s">
-        <v>1026</v>
+        <v>193</v>
       </c>
       <c r="C1158" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1158" s="6" t="s">
-        <v>1027</v>
+        <v>194</v>
       </c>
       <c r="E1158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1158" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+      <c r="F1158" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G1158" s="6"/>
       <c r="H1158" s="6" t="s">
-        <v>1028</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1159" s="6"/>
       <c r="B1159" s="6" t="s">
-        <v>793</v>
+        <v>1026</v>
       </c>
       <c r="C1159" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1159" s="6" t="s">
-        <v>793</v>
+        <v>1027</v>
       </c>
       <c r="E1159" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1159" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1159" s="6"/>
       <c r="H1159" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
@@ -37110,16 +37148,16 @@
         <v>793</v>
       </c>
       <c r="C1160" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1160" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E1160" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1160" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1160" s="6"/>
       <c r="H1160" s="6" t="s">
@@ -37129,23 +37167,23 @@
     <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1161" s="6"/>
       <c r="B1161" s="6" t="s">
-        <v>982</v>
+        <v>793</v>
       </c>
       <c r="C1161" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1161" s="6" t="s">
-        <v>982</v>
+        <v>795</v>
       </c>
       <c r="E1161" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1161" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1161" s="6"/>
       <c r="H1161" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
@@ -37154,16 +37192,16 @@
         <v>982</v>
       </c>
       <c r="C1162" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1162" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E1162" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1162" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1162" s="6"/>
       <c r="H1162" s="6" t="s">
@@ -37173,23 +37211,23 @@
     <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1163" s="6"/>
       <c r="B1163" s="6" t="s">
-        <v>1606</v>
+        <v>982</v>
       </c>
       <c r="C1163" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1163" s="6" t="s">
-        <v>1606</v>
+        <v>984</v>
       </c>
       <c r="E1163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1163" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G1163" s="6"/>
       <c r="H1163" s="6" t="s">
-        <v>1607</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
@@ -37198,10 +37236,10 @@
         <v>1606</v>
       </c>
       <c r="C1164" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1164" s="6" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E1164" s="6" t="s">
         <v>19</v>
@@ -37217,23 +37255,23 @@
     <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1165" s="6"/>
       <c r="B1165" s="6" t="s">
-        <v>427</v>
+        <v>1606</v>
       </c>
       <c r="C1165" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1165" s="6" t="s">
-        <v>427</v>
+        <v>1608</v>
       </c>
       <c r="E1165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1165" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G1165" s="6"/>
       <c r="H1165" s="6" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
@@ -37242,42 +37280,42 @@
         <v>427</v>
       </c>
       <c r="C1166" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1166" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E1166" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1166" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1166" s="6"/>
       <c r="H1166" s="6" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1167" s="6"/>
       <c r="B1167" s="6" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="C1167" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1167" s="6" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
       <c r="E1167" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1167" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1167" s="6"/>
       <c r="H1167" s="6" t="s">
-        <v>796</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
@@ -37286,10 +37324,10 @@
         <v>215</v>
       </c>
       <c r="C1168" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1168" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1168" s="6" t="s">
         <v>19</v>
@@ -37305,23 +37343,23 @@
     <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1169" s="6"/>
       <c r="B1169" s="6" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="C1169" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D1169" s="6" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="E1169" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1169" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G1169" s="6"/>
       <c r="H1169" s="6" t="s">
-        <v>1537</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
@@ -37330,41 +37368,63 @@
         <v>108</v>
       </c>
       <c r="C1170" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D1170" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1170" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1170" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1170" s="6"/>
       <c r="H1170" s="6" t="s">
-        <v>1611</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1171" s="6"/>
       <c r="B1171" s="6" t="s">
-        <v>743</v>
+        <v>108</v>
       </c>
       <c r="C1171" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D1171" s="6" t="s">
-        <v>744</v>
+        <v>109</v>
       </c>
       <c r="E1171" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1171" s="12" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="F1171" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G1171" s="6"/>
       <c r="H1171" s="6" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1172" s="6"/>
+      <c r="B1172" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1172" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1172" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1172" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1172" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1172" s="6"/>
+      <c r="H1172" s="6" t="s">
         <v>1034</v>
       </c>
     </row>

--- a/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-sedinkinya\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B4076-969B-4FF1-B5B5-3EDE1588AC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2C113-FEE1-4DFA-957E-10CFEF22629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2865" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2865" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms R5 server" sheetId="1" r:id="rId1"/>
@@ -4874,10 +4874,10 @@
     <t>unsignedInt</t>
   </si>
   <si>
-    <t># of participants</t>
-  </si>
-  <si>
     <t>recruitment.actualNumber</t>
+  </si>
+  <si>
+    <t># Subjects</t>
   </si>
 </sst>
 </file>
@@ -5294,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312:XFD312"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11870,7 +11870,7 @@
         <v>29</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>19</v>
@@ -11879,7 +11879,7 @@
         <v>1616</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>1615</v>
@@ -12268,8 +12268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1042" workbookViewId="0">
-      <selection activeCell="G1069" sqref="G1069"/>
+    <sheetView topLeftCell="A1048" workbookViewId="0">
+      <selection activeCell="D1069" sqref="D1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35185,7 +35185,7 @@
         <v>29</v>
       </c>
       <c r="D1069" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="E1069" s="2" t="s">
         <v>19</v>
@@ -35194,7 +35194,7 @@
         <v>1616</v>
       </c>
       <c r="G1069" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1069" s="2" t="s">
         <v>1615</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-sedinkinya\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-ftdev04\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2C113-FEE1-4DFA-957E-10CFEF22629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D3120-5C66-4556-8FCB-C188C30A0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2865" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="2880" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms R5 server" sheetId="1" r:id="rId1"/>
@@ -4996,9 +4996,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5036,7 +5036,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5142,7 +5142,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5284,7 +5284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5294,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5726,7 +5726,7 @@
       <c r="E28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="8"/>
@@ -7223,7 +7223,7 @@
       <c r="E97" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G97" s="8"/>
@@ -7884,9 +7884,9 @@
         <v>263</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F128" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G128" s="10"/>
@@ -7930,7 +7930,7 @@
       <c r="E130" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="12" t="s">
+      <c r="F130" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G130" s="8"/>
@@ -11239,7 +11239,7 @@
       <c r="E283" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F283" s="12" t="s">
+      <c r="F283" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G283" s="8"/>
@@ -12268,8 +12268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1172"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048" workbookViewId="0">
-      <selection activeCell="D1069" sqref="D1069"/>
+    <sheetView tabSelected="1" topLeftCell="A1147" workbookViewId="0">
+      <selection activeCell="F1172" sqref="F1172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13868,9 +13868,9 @@
         <v>756</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G79" s="6"/>
@@ -15057,9 +15057,9 @@
         <v>194</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F134" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G134" s="6"/>
@@ -15852,9 +15852,9 @@
         <v>858</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F171" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G171" s="6"/>
@@ -16006,9 +16006,9 @@
         <v>868</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F178" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G178" s="6"/>
@@ -17398,9 +17398,9 @@
         <v>194</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F243" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G243" s="6"/>
@@ -18347,9 +18347,9 @@
         <v>194</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F287" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F287" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G287" s="6"/>
@@ -18946,9 +18946,9 @@
         <v>59</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F315" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F315" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G315" s="6"/>
@@ -19631,9 +19631,9 @@
         <v>50</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F347" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F347" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G347" s="6"/>
@@ -20157,9 +20157,9 @@
         <v>273</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F371" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F371" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G371" s="6"/>
@@ -20267,9 +20267,9 @@
         <v>194</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F376" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F376" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G376" s="6"/>
@@ -21507,9 +21507,9 @@
         <v>38</v>
       </c>
       <c r="E434" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F434" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F434" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G434" s="6"/>
@@ -21881,9 +21881,9 @@
         <v>1118</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F451" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F451" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G451" s="6"/>
@@ -23598,9 +23598,9 @@
         <v>205</v>
       </c>
       <c r="E530" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F530" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F530" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G530" s="6"/>
@@ -24594,9 +24594,9 @@
         <v>719</v>
       </c>
       <c r="E577" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F577" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F577" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G577" s="6"/>
@@ -25147,9 +25147,9 @@
         <v>194</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F603" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F603" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G603" s="6"/>
@@ -27339,9 +27339,9 @@
         <v>387</v>
       </c>
       <c r="E706" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F706" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F706" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G706" s="6"/>
@@ -27557,9 +27557,9 @@
         <v>263</v>
       </c>
       <c r="E716" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F716" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F716" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G716" s="6"/>
@@ -27733,9 +27733,9 @@
         <v>194</v>
       </c>
       <c r="E724" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F724" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F724" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G724" s="6"/>
@@ -28418,9 +28418,9 @@
         <v>263</v>
       </c>
       <c r="E756" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F756" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F756" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G756" s="6"/>
@@ -28462,9 +28462,9 @@
         <v>267</v>
       </c>
       <c r="E758" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F758" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F758" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G758" s="6"/>
@@ -29215,9 +29215,9 @@
         <v>387</v>
       </c>
       <c r="E793" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F793" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F793" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G793" s="6"/>
@@ -29675,9 +29675,9 @@
         <v>263</v>
       </c>
       <c r="E814" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F814" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F814" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G814" s="6"/>
@@ -29851,9 +29851,9 @@
         <v>194</v>
       </c>
       <c r="E822" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F822" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F822" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G822" s="6"/>
@@ -30536,9 +30536,9 @@
         <v>263</v>
       </c>
       <c r="E854" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F854" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F854" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G854" s="6"/>
@@ -30624,9 +30624,9 @@
         <v>194</v>
       </c>
       <c r="E858" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F858" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F858" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G858" s="6"/>
@@ -33427,9 +33427,9 @@
         <v>1509</v>
       </c>
       <c r="E988" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F988" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F988" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G988" s="6"/>
@@ -33953,9 +33953,9 @@
         <v>194</v>
       </c>
       <c r="E1012" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1012" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1012" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1012" s="6"/>
@@ -34261,9 +34261,9 @@
         <v>1541</v>
       </c>
       <c r="E1026" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1026" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1026" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1026" s="6"/>
@@ -34552,9 +34552,9 @@
         <v>396</v>
       </c>
       <c r="E1040" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1040" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1040" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1040" s="6"/>
@@ -36073,9 +36073,9 @@
         <v>194</v>
       </c>
       <c r="E1110" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1110" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1110" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1110" s="6"/>
@@ -36430,9 +36430,9 @@
         <v>50</v>
       </c>
       <c r="E1127" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1127" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1127" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1127" s="6"/>
@@ -36802,9 +36802,9 @@
         <v>168</v>
       </c>
       <c r="E1144" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1144" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1144" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1144" s="6"/>
@@ -37110,9 +37110,9 @@
         <v>194</v>
       </c>
       <c r="E1158" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1158" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1158" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1158" s="6"/>
@@ -37418,9 +37418,9 @@
         <v>744</v>
       </c>
       <c r="E1172" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1172" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1172" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G1172" s="6"/>

--- a/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-ftdev04\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D3120-5C66-4556-8FCB-C188C30A0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA2679-B96A-4178-99B6-4BA25A713C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="2880" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="2175" windowWidth="36585" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms R5 server" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8722" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="1627">
   <si>
     <t>Legend</t>
   </si>
@@ -4878,6 +4878,30 @@
   </si>
   <si>
     <t># Subjects</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>iif(birthDate.exists(), defineVariable('referenceDate', iif(%context.deceasedDateTime.exists(), %context.deceasedDateTime, today())).select((%referenceDate.toString().substring(0,4).toInteger() - %context.birthDate.toString().substring(0,4).toInteger()) - iif(%referenceDate.toString().substring(5,10) &lt; %context.birthDate.toString().substring(5,10),1,0)), {})</t>
+  </si>
+  <si>
+    <t>The patient's age</t>
+  </si>
+  <si>
+    <t>defineVariable('homeAddress', address.where(use = 'home')).select(iif(%homeAddress.exists(), %homeAddress, address)).state.first()</t>
+  </si>
+  <si>
+    <t>State (from the first possible home address where the state is specified)</t>
   </si>
 </sst>
 </file>
@@ -5292,10 +5316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H329"/>
+  <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10167,37 +10191,39 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F234" s="7" t="s">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G234" s="6"/>
-      <c r="H234" s="6" t="s">
-        <v>461</v>
+      <c r="G234" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>19</v>
@@ -10207,19 +10233,19 @@
       </c>
       <c r="G235" s="6"/>
       <c r="H235" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>19</v>
@@ -10229,19 +10255,19 @@
       </c>
       <c r="G236" s="6"/>
       <c r="H236" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>19</v>
@@ -10251,107 +10277,107 @@
       </c>
       <c r="G237" s="6"/>
       <c r="H237" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G238" s="6"/>
       <c r="H238" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G239" s="6"/>
       <c r="H239" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+      <c r="B240" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-      <c r="B240" s="10" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C240" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D240" s="10" t="s">
+      <c r="C241" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D241" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="E240" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F240" s="11" t="s">
+      <c r="E241" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F241" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G240" s="10"/>
-      <c r="H240" s="10" t="s">
+      <c r="G241" s="10"/>
+      <c r="H241" s="10" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="E241" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F241" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G241" s="8"/>
-      <c r="H241" s="8" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>31</v>
@@ -10361,1406 +10387,1408 @@
       </c>
       <c r="G242" s="8"/>
       <c r="H242" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G243" s="8"/>
+      <c r="H243" s="8" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F243" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G243" s="6"/>
-      <c r="H243" s="6" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="G244" s="6"/>
       <c r="H244" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="6"/>
+      <c r="B245" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8" t="s">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D245" s="8" t="s">
+      <c r="C246" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="E245" s="8" t="s">
+      <c r="E246" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F245" s="9" t="s">
+      <c r="F246" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8" t="s">
+      <c r="G246" s="8"/>
+      <c r="H246" s="8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
-      <c r="B246" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G246" s="6"/>
-      <c r="H246" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F247" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G247" s="6"/>
-      <c r="H247" s="6" t="s">
-        <v>493</v>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>48</v>
+        <v>490</v>
       </c>
       <c r="G248" s="6"/>
       <c r="H248" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
-      <c r="B249" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D249" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="E249" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G249" s="10"/>
-      <c r="H249" s="10" t="s">
-        <v>497</v>
+      <c r="A249" s="6"/>
+      <c r="B249" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G250" s="6"/>
       <c r="H250" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E251" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F251" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8" t="s">
-        <v>502</v>
+      <c r="A251" s="10"/>
+      <c r="B251" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G252" s="6"/>
       <c r="H252" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
-      <c r="B253" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E253" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G253" s="8"/>
+      <c r="H253" s="8" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6" t="s">
-        <v>66</v>
+        <v>503</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>66</v>
+        <v>503</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G254" s="6"/>
       <c r="H254" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E255" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F255" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8" t="s">
-        <v>506</v>
-      </c>
+      <c r="A255" s="10"/>
+      <c r="B255" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6" t="s">
-        <v>507</v>
+        <v>66</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>507</v>
+        <v>66</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G256" s="6"/>
       <c r="H256" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="8"/>
+      <c r="B257" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="6"/>
+      <c r="B258" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="6"/>
+      <c r="B259" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D257" s="6" t="s">
+      <c r="C259" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="E257" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F257" s="7" t="s">
+      <c r="E259" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F259" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6" t="s">
+      <c r="G259" s="6"/>
+      <c r="H259" s="6" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F258" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E259" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F259" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="8" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F260" s="9" t="s">
-        <v>35</v>
+      <c r="F260" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G260" s="8"/>
       <c r="H260" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>521</v>
+        <v>56</v>
       </c>
       <c r="G261" s="8"/>
       <c r="H261" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E262" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G262" s="8"/>
+      <c r="H262" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="8"/>
+      <c r="B263" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G263" s="8"/>
+      <c r="H263" s="8" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G262" s="6"/>
-      <c r="H262" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
-      <c r="B263" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D263" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="E263" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="G263" s="10"/>
-      <c r="H263" s="10" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G264" s="6"/>
       <c r="H264" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G265" s="6"/>
-      <c r="H265" s="6" t="s">
-        <v>531</v>
+      <c r="A265" s="10"/>
+      <c r="B265" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G266" s="6"/>
       <c r="H266" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F267" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="G267" s="8"/>
-      <c r="H267" s="8" t="s">
-        <v>537</v>
+      <c r="A267" s="6"/>
+      <c r="B267" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>490</v>
+        <v>26</v>
       </c>
       <c r="G268" s="6"/>
       <c r="H268" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F269" s="9" t="s">
-        <v>490</v>
+      <c r="F269" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="G269" s="8"/>
       <c r="H269" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>542</v>
+      <c r="A270" s="6"/>
+      <c r="B270" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E271" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F271" s="12" t="s">
-        <v>85</v>
+      <c r="F271" s="9" t="s">
+        <v>490</v>
       </c>
       <c r="G271" s="8"/>
       <c r="H271" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G272" s="6"/>
-      <c r="H272" s="6" t="s">
-        <v>547</v>
+      <c r="A272" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F273" s="9" t="s">
-        <v>35</v>
+      <c r="F273" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G273" s="8"/>
       <c r="H273" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="6"/>
+      <c r="B274" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="E274" s="8" t="s">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="8"/>
+      <c r="B275" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="E275" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F274" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F275" s="7" t="s">
+      <c r="F275" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G275" s="6"/>
-      <c r="H275" s="6" t="s">
-        <v>553</v>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>16</v>
+        <v>550</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F276" s="9" t="s">
-        <v>35</v>
+      <c r="F276" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G276" s="8"/>
       <c r="H276" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6" t="s">
-        <v>23</v>
+        <v>552</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>23</v>
+        <v>552</v>
       </c>
       <c r="E277" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G277" s="6"/>
       <c r="H277" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="8" t="s">
-        <v>23</v>
+        <v>552</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="G278" s="8"/>
       <c r="H278" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6" t="s">
-        <v>557</v>
+        <v>23</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>557</v>
+        <v>23</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G279" s="6"/>
       <c r="H279" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="8" t="s">
-        <v>557</v>
+        <v>23</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>15</v>
+        <v>555</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F280" s="12" t="s">
-        <v>288</v>
+      <c r="F280" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="G280" s="8"/>
       <c r="H280" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+      <c r="B281" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D281" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="E281" s="8" t="s">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F281" s="12" t="s">
+      <c r="F282" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G281" s="8"/>
-      <c r="H281" s="8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E282" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F282" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6" t="s">
-        <v>563</v>
+      <c r="G282" s="8"/>
+      <c r="H282" s="8" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="8" t="s">
-        <v>394</v>
+        <v>559</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>396</v>
+        <v>560</v>
       </c>
       <c r="E283" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F283" s="9" t="s">
-        <v>60</v>
+      <c r="F283" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="G283" s="8"/>
       <c r="H283" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G284" s="6"/>
       <c r="H284" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="8"/>
+      <c r="B285" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+      <c r="B286" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E285" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F285" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="10"/>
-      <c r="B286" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D286" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E286" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F286" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G286" s="10"/>
-      <c r="H286" s="10"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6" t="s">
-        <v>66</v>
+        <v>567</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>66</v>
+        <v>567</v>
       </c>
       <c r="E287" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F287" s="7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G287" s="6"/>
       <c r="H287" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E288" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F288" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G288" s="8"/>
-      <c r="H288" s="8" t="s">
-        <v>569</v>
-      </c>
+      <c r="A288" s="10"/>
+      <c r="B288" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D288" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G288" s="10"/>
+      <c r="H288" s="10"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6" t="s">
-        <v>570</v>
+        <v>66</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>570</v>
+        <v>66</v>
       </c>
       <c r="E289" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F289" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G289" s="6"/>
       <c r="H289" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="8" t="s">
-        <v>570</v>
+        <v>66</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>572</v>
+        <v>67</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G290" s="8"/>
       <c r="H290" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E291" s="8" t="s">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E292" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F291" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G291" s="8"/>
-      <c r="H291" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="6"/>
-      <c r="H292" s="6" t="s">
-        <v>576</v>
+      <c r="F292" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G292" s="8"/>
+      <c r="H292" s="8" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F293" s="9" t="s">
-        <v>26</v>
+      <c r="F293" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G293" s="8"/>
       <c r="H293" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D294" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F294" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G294" s="8"/>
-      <c r="H294" s="8" t="s">
-        <v>578</v>
+      <c r="A294" s="6"/>
+      <c r="B294" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="8" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="E295" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F295" s="12" t="s">
-        <v>85</v>
+      <c r="F295" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G295" s="8"/>
       <c r="H295" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="8"/>
+      <c r="B296" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F296" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="8"/>
+      <c r="B297" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G297" s="8"/>
+      <c r="H297" s="8" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6" t="s">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="6"/>
+      <c r="B298" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D296" s="6" t="s">
+      <c r="C298" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D298" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E296" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F296" s="7" t="s">
+      <c r="E298" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F298" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G296" s="6"/>
-      <c r="H296" s="6" t="s">
+      <c r="G298" s="6"/>
+      <c r="H298" s="6" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E297" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F297" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G297" s="6"/>
-      <c r="H297" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="E298" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F298" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G298" s="8"/>
-      <c r="H298" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6" t="s">
-        <v>173</v>
+        <v>584</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>173</v>
+        <v>584</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G299" s="6"/>
       <c r="H299" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8" t="s">
-        <v>179</v>
+        <v>586</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>180</v>
+        <v>587</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F300" s="9" t="s">
-        <v>56</v>
+      <c r="F300" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="G300" s="8"/>
       <c r="H300" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="6"/>
+      <c r="B301" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="8"/>
-      <c r="B301" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E301" s="8" t="s">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="8"/>
+      <c r="B302" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E302" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F301" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G301" s="8"/>
-      <c r="H301" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F302" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G302" s="6"/>
-      <c r="H302" s="6" t="s">
-        <v>592</v>
+      <c r="F302" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G302" s="8"/>
+      <c r="H302" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>593</v>
+        <v>119</v>
       </c>
       <c r="E303" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="G303" s="8"/>
       <c r="H303" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="6"/>
+      <c r="B304" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="8"/>
+      <c r="B305" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F305" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G305" s="8"/>
+      <c r="H305" s="8" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8" t="s">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="8"/>
+      <c r="B306" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="C304" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D304" s="8" t="s">
+      <c r="C306" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D306" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="E304" s="8" t="s">
+      <c r="E306" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F304" s="9" t="s">
+      <c r="F306" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G304" s="8"/>
-      <c r="H304" s="8" t="s">
+      <c r="G306" s="8"/>
+      <c r="H306" s="8" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="E305" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F305" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G305" s="6"/>
-      <c r="H305" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
-      <c r="B306" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F306" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G306" s="6"/>
-      <c r="H306" s="6" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>19</v>
@@ -11770,285 +11798,285 @@
       </c>
       <c r="G307" s="6"/>
       <c r="H307" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C308" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D308" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F308" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G308" s="8"/>
-      <c r="H308" s="8" t="s">
-        <v>606</v>
+      <c r="A308" s="6"/>
+      <c r="B308" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="G309" s="6"/>
       <c r="H309" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="8"/>
+      <c r="B310" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F310" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G310" s="8"/>
+      <c r="H310" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="6"/>
+      <c r="B311" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
-      <c r="B310" s="10" t="s">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="10"/>
+      <c r="B312" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C310" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D310" s="10" t="s">
+      <c r="C312" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="E310" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F310" s="11" t="s">
+      <c r="E312" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F312" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G310" s="10"/>
-      <c r="H310" s="10" t="s">
+      <c r="G312" s="10"/>
+      <c r="H312" s="10" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8" t="s">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="8"/>
+      <c r="B313" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C311" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D311" s="8" t="s">
+      <c r="C313" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="E311" s="8" t="s">
+      <c r="E313" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F311" s="12" t="s">
+      <c r="F313" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G311" s="8"/>
-      <c r="H311" s="8" t="s">
+      <c r="G313" s="8"/>
+      <c r="H313" s="8" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2" t="s">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D312" s="2" t="s">
+      <c r="C314" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="E312" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F312" s="2" t="s">
+      <c r="E314" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F314" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="G312" s="2" t="s">
+      <c r="G314" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="H312" s="2" t="s">
+      <c r="H314" s="2" t="s">
         <v>1615</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F313" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G313" s="6"/>
-      <c r="H313" s="6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F314" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G314" s="6"/>
-      <c r="H314" s="6" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E315" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>35</v>
+        <v>614</v>
       </c>
       <c r="G315" s="6"/>
       <c r="H315" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="6"/>
+      <c r="B316" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="6"/>
+      <c r="B317" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="8"/>
-      <c r="B316" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="E316" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F316" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G316" s="8"/>
-      <c r="H316" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="8"/>
-      <c r="B317" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C317" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="E317" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F317" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="G317" s="8"/>
-      <c r="H317" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="8" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E318" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G318" s="8"/>
       <c r="H318" s="8" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F319" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G319" s="6"/>
-      <c r="H319" s="6" t="s">
-        <v>629</v>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F319" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G319" s="8"/>
+      <c r="H319" s="8" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E320" s="8" t="s">
         <v>31</v>
@@ -12058,204 +12086,248 @@
       </c>
       <c r="G320" s="8"/>
       <c r="H320" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6" t="s">
-        <v>215</v>
+        <v>628</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>215</v>
+        <v>628</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F321" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G321" s="6"/>
       <c r="H321" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="10"/>
-      <c r="B322" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C322" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D322" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E322" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F322" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G322" s="10"/>
-      <c r="H322" s="10" t="s">
-        <v>632</v>
+      <c r="A322" s="8"/>
+      <c r="B322" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F322" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G322" s="8"/>
+      <c r="H322" s="8" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6" t="s">
-        <v>633</v>
+        <v>215</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>633</v>
+        <v>215</v>
       </c>
       <c r="E323" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G323" s="6"/>
       <c r="H323" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="8"/>
-      <c r="B324" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="E324" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F324" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G324" s="8"/>
-      <c r="H324" s="8" t="s">
-        <v>634</v>
+      <c r="A324" s="10"/>
+      <c r="B324" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D324" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E324" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G324" s="10"/>
+      <c r="H324" s="10" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E325" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G325" s="6"/>
       <c r="H325" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="8"/>
+      <c r="B326" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G326" s="8"/>
+      <c r="H326" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="6"/>
+      <c r="B327" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10" t="s">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="10"/>
+      <c r="B328" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C326" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D326" s="10" t="s">
+      <c r="C328" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D328" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="E326" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F326" s="11" t="s">
+      <c r="E328" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F328" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G326" s="10"/>
-      <c r="H326" s="10" t="s">
+      <c r="G328" s="10"/>
+      <c r="H328" s="10" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="8"/>
-      <c r="B327" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="E327" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F327" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G327" s="8"/>
-      <c r="H327" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="8"/>
-      <c r="B328" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E328" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F328" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G328" s="8"/>
-      <c r="H328" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="8" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E329" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="G329" s="8"/>
       <c r="H329" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="8"/>
+      <c r="B330" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" s="8"/>
+      <c r="H330" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="8"/>
+      <c r="B331" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G331" s="8"/>
+      <c r="H331" s="8" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12268,7 +12340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1147" workbookViewId="0">
+    <sheetView topLeftCell="A1147" workbookViewId="0">
       <selection activeCell="F1172" sqref="F1172"/>
     </sheetView>
   </sheetViews>
